--- a/public/excelTemplate/资金台账-借款信息导入模板.xlsx
+++ b/public/excelTemplate/资金台账-借款信息导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7860" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="流贷-好信用" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="36">
   <si>
     <t>基础信息</t>
   </si>
@@ -75,6 +75,12 @@
     </r>
   </si>
   <si>
+    <t>借款单位</t>
+  </si>
+  <si>
+    <t>分部</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -93,65 +99,389 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>借款单位</t>
-    </r>
-  </si>
-  <si>
-    <t>分部</t>
-  </si>
-  <si>
-    <t>借款金额（元）</t>
+      <t>借款金额（元）</t>
+    </r>
   </si>
   <si>
     <t>供货商名称</t>
   </si>
   <si>
-    <t>还款方式</t>
-  </si>
-  <si>
-    <t>年利率（%）</t>
-  </si>
-  <si>
-    <t>借款期限（月）—期限为月填这个</t>
-  </si>
-  <si>
-    <t>借款期限（天）—期限为日填这个</t>
-  </si>
-  <si>
-    <t>放款日期</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>还款方式</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>年利率</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>借款期限（月）—期限为月填这个</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>借款期限（天）—期限为日填这个</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>放款日期</t>
+    </r>
   </si>
   <si>
     <t>登记人</t>
   </si>
   <si>
-    <t>12312sad</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>宽限期时长（天）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>宽限期利率</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>逾期1阶段时长（月）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>逾期1阶段利率</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>逾期2阶段时长（月）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>逾期2阶段利率</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>开票金额（元）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>开票日期</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>保证金比例</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>保证金缴纳</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>承兑期限（月）—期限为月填这个</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>承兑期限（日）—期限为日填这个</t>
+    </r>
+  </si>
+  <si>
+    <t>第一次还款宽限期时长</t>
+  </si>
+  <si>
+    <t>第二次还款宽限期时长（天）</t>
+  </si>
+  <si>
+    <t>第三次还款宽限期时长（天）</t>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>逾期利率</t>
+    </r>
+  </si>
+  <si>
+    <t>开票金额（元）</t>
+  </si>
+  <si>
+    <t>开票日期</t>
   </si>
   <si>
     <t>一次性还款</t>
   </si>
   <si>
-    <t>开票金额（元）</t>
-  </si>
-  <si>
-    <t>开票日期</t>
-  </si>
-  <si>
-    <t>保证金比例（%）</t>
-  </si>
-  <si>
-    <t>保证金缴纳</t>
-  </si>
-  <si>
-    <t>承兑期限（月）—期限为月填这个</t>
-  </si>
-  <si>
-    <t>承兑期限（日）—期限为日填这个</t>
-  </si>
-  <si>
-    <t>shy</t>
-  </si>
-  <si>
-    <t>借款单位</t>
+    <t>*台账编号</t>
   </si>
 </sst>
 </file>
@@ -159,12 +489,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,74 +510,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,6 +526,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -269,7 +540,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,7 +616,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -306,6 +631,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,23 +646,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,7 +663,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,13 +819,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,163 +831,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,8 +860,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,30 +905,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -597,21 +915,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -636,6 +939,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -644,10 +962,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -656,150 +974,153 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1121,146 +1442,160 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="2" max="2" width="15.25" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="7" width="13.75" customWidth="1"/>
-    <col min="8" max="8" width="11.875" customWidth="1"/>
-    <col min="9" max="9" width="31.625" customWidth="1"/>
-    <col min="10" max="10" width="29.25" customWidth="1"/>
-    <col min="11" max="11" width="11.125" customWidth="1"/>
-    <col min="13" max="13" width="18.5" customWidth="1"/>
-    <col min="14" max="14" width="21.625" customWidth="1"/>
-    <col min="15" max="15" width="21.25" customWidth="1"/>
-    <col min="16" max="16" width="16.5" customWidth="1"/>
-    <col min="17" max="17" width="13.375" customWidth="1"/>
-    <col min="18" max="18" width="21.25" customWidth="1"/>
-    <col min="19" max="19" width="19.125" customWidth="1"/>
-    <col min="20" max="20" width="15" customWidth="1"/>
-    <col min="22" max="22" width="19.125" customWidth="1"/>
-    <col min="23" max="23" width="23.375" customWidth="1"/>
-    <col min="24" max="24" width="19.125" customWidth="1"/>
-    <col min="25" max="25" width="14" customWidth="1"/>
-    <col min="26" max="26" width="25.5" customWidth="1"/>
+    <col min="1" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="15" style="1" customWidth="1"/>
+    <col min="6" max="7" width="13.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="31.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="29.25" style="1" customWidth="1"/>
+    <col min="11" max="12" width="11.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17" style="1" customWidth="1"/>
+    <col min="15" max="15" width="21.125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="20.125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="21.125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="20.125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="18.5" style="1" customWidth="1"/>
+    <col min="20" max="20" width="21.625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="21.25" style="1" customWidth="1"/>
+    <col min="22" max="22" width="16.5" style="1" customWidth="1"/>
+    <col min="23" max="23" width="13.375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="21.25" style="1" customWidth="1"/>
+    <col min="25" max="25" width="19.125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="15" style="1" customWidth="1"/>
+    <col min="27" max="27" width="9" style="1"/>
+    <col min="28" max="28" width="19.125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="23.375" style="1" customWidth="1"/>
+    <col min="30" max="30" width="19.125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="14" style="1" customWidth="1"/>
+    <col min="32" max="32" width="25.5" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="29" customHeight="1" spans="1:14">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" ht="29" customHeight="1" spans="1:20">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="1" spans="1:13">
-      <c r="A2" s="2" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:19">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="1"/>
+      <c r="M2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" s="2"/>
     </row>
-    <row r="3" ht="14.25" spans="1:12">
-      <c r="A3">
-        <v>123</v>
-      </c>
-      <c r="B3">
-        <v>1309</v>
-      </c>
-      <c r="C3">
-        <v>123</v>
-      </c>
-      <c r="D3">
-        <v>345</v>
-      </c>
-      <c r="E3">
-        <v>1111</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3">
-        <v>10</v>
-      </c>
-      <c r="I3">
-        <v>5</v>
-      </c>
-      <c r="K3" s="4">
-        <v>42720</v>
-      </c>
-      <c r="L3" t="s">
-        <v>15</v>
+    <row r="3" spans="14:18">
+      <c r="N3" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="O3" s="1">
+        <v>3</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>99999</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:L1"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="E1:R1"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3">
       <formula1>"一次性还款,334"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA3">
       <formula1>"逾期"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1272,139 +1607,161 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="8" max="8" width="20.3166666666667" customWidth="1"/>
-    <col min="9" max="9" width="13.15" customWidth="1"/>
-    <col min="10" max="10" width="18.3666666666667" customWidth="1"/>
-    <col min="11" max="11" width="18.8" customWidth="1"/>
-    <col min="12" max="12" width="28.8" customWidth="1"/>
-    <col min="13" max="13" width="19.9916666666667" customWidth="1"/>
-    <col min="14" max="14" width="16.1916666666667" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="7" max="7" width="13.5583333333333" customWidth="1"/>
+    <col min="8" max="9" width="14.625" customWidth="1"/>
+    <col min="10" max="11" width="31.625" customWidth="1"/>
+    <col min="12" max="12" width="9.75" customWidth="1"/>
+    <col min="13" max="15" width="27.5" customWidth="1"/>
+    <col min="16" max="16" width="17" customWidth="1"/>
+    <col min="17" max="17" width="14.875" customWidth="1"/>
+    <col min="19" max="19" width="12.25" customWidth="1"/>
+    <col min="20" max="20" width="23.375" customWidth="1"/>
+    <col min="21" max="21" width="15" customWidth="1"/>
+    <col min="22" max="22" width="19.125" customWidth="1"/>
+    <col min="23" max="23" width="23.375" customWidth="1"/>
+    <col min="24" max="24" width="19.125" customWidth="1"/>
+    <col min="25" max="25" width="14" customWidth="1"/>
+    <col min="26" max="26" width="10.875" customWidth="1"/>
+    <col min="27" max="27" width="19.125" customWidth="1"/>
+    <col min="28" max="28" width="23.375" customWidth="1"/>
+    <col min="29" max="29" width="19.125" customWidth="1"/>
+    <col min="31" max="33" width="19.125" customWidth="1"/>
+    <col min="34" max="34" width="14" customWidth="1"/>
+    <col min="35" max="35" width="10.875" customWidth="1"/>
+    <col min="36" max="36" width="19.125" customWidth="1"/>
+    <col min="37" max="37" width="23.375" customWidth="1"/>
+    <col min="38" max="38" width="19.125" customWidth="1"/>
+    <col min="39" max="39" width="8.875" customWidth="1"/>
+    <col min="40" max="42" width="19.125" customWidth="1"/>
+    <col min="43" max="43" width="14" customWidth="1"/>
+    <col min="44" max="44" width="10.875" customWidth="1"/>
+    <col min="45" max="45" width="19.125" customWidth="1"/>
+    <col min="46" max="46" width="23.375" customWidth="1"/>
+    <col min="47" max="47" width="19.125" customWidth="1"/>
+    <col min="48" max="48" width="8.875" customWidth="1"/>
+    <col min="49" max="51" width="19.125" customWidth="1"/>
+    <col min="52" max="52" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="27" customHeight="1" spans="1:20">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="T1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:20">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="H2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
     </row>
-    <row r="3" ht="14.25" spans="1:15">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>1309</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <v>1000</v>
-      </c>
-      <c r="F3" s="4">
-        <v>43882</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3">
-        <v>20</v>
-      </c>
-      <c r="I3">
-        <v>50</v>
-      </c>
-      <c r="L3">
-        <v>334</v>
-      </c>
-      <c r="M3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3">
-        <v>123</v>
-      </c>
-      <c r="O3" t="s">
-        <v>3</v>
+    <row r="3" spans="16:17">
+      <c r="P3">
+        <v>0.12</v>
+      </c>
+      <c r="Q3">
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:M1"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="E1:R1"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3 M3:N3">
       <formula1>"一次性还款,334"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM3">
+      <formula1>"逾期"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1415,127 +1772,204 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A$1:D$1048576"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3:U4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="7" max="7" width="10.875" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
     <col min="11" max="12" width="31.625" customWidth="1"/>
-    <col min="15" max="15" width="17.125" customWidth="1"/>
-    <col min="16" max="16" width="23.375" customWidth="1"/>
-    <col min="17" max="17" width="15" customWidth="1"/>
-    <col min="18" max="18" width="19.125" customWidth="1"/>
-    <col min="19" max="19" width="23.375" customWidth="1"/>
-    <col min="20" max="23" width="19.125" customWidth="1"/>
-    <col min="24" max="24" width="14" customWidth="1"/>
-    <col min="25" max="25" width="10.875" customWidth="1"/>
-    <col min="26" max="28" width="23.375" customWidth="1"/>
-    <col min="29" max="29" width="15" customWidth="1"/>
-    <col min="30" max="30" width="19.125" customWidth="1"/>
-    <col min="31" max="31" width="15" customWidth="1"/>
-    <col min="33" max="35" width="19.125" customWidth="1"/>
-    <col min="36" max="36" width="14" customWidth="1"/>
-    <col min="37" max="37" width="10.875" customWidth="1"/>
-    <col min="38" max="40" width="23.375" customWidth="1"/>
-    <col min="41" max="41" width="15" customWidth="1"/>
-    <col min="42" max="42" width="19.125" customWidth="1"/>
-    <col min="43" max="43" width="15" customWidth="1"/>
-    <col min="45" max="47" width="19.125" customWidth="1"/>
-    <col min="48" max="48" width="14" customWidth="1"/>
-    <col min="49" max="49" width="10.875" customWidth="1"/>
-    <col min="50" max="52" width="23.375" customWidth="1"/>
-    <col min="53" max="53" width="15" customWidth="1"/>
-    <col min="54" max="54" width="19.125" customWidth="1"/>
-    <col min="55" max="55" width="15" customWidth="1"/>
-    <col min="56" max="56" width="8.875" customWidth="1"/>
-    <col min="57" max="59" width="19.125" customWidth="1"/>
+    <col min="13" max="13" width="13.625" customWidth="1"/>
+    <col min="14" max="14" width="21.25" customWidth="1"/>
+    <col min="15" max="16" width="27.5" customWidth="1"/>
+    <col min="17" max="17" width="17" customWidth="1"/>
+    <col min="18" max="18" width="21.125" customWidth="1"/>
+    <col min="19" max="19" width="20.125" customWidth="1"/>
+    <col min="20" max="20" width="21.125" customWidth="1"/>
+    <col min="21" max="21" width="20.125" customWidth="1"/>
+    <col min="23" max="23" width="17.125" customWidth="1"/>
+    <col min="24" max="24" width="23.375" customWidth="1"/>
+    <col min="25" max="25" width="15" customWidth="1"/>
+    <col min="26" max="26" width="19.125" customWidth="1"/>
+    <col min="27" max="27" width="23.375" customWidth="1"/>
+    <col min="28" max="31" width="19.125" customWidth="1"/>
+    <col min="32" max="32" width="14" customWidth="1"/>
+    <col min="33" max="33" width="10.875" customWidth="1"/>
+    <col min="34" max="36" width="23.375" customWidth="1"/>
+    <col min="37" max="37" width="15" customWidth="1"/>
+    <col min="38" max="38" width="19.125" customWidth="1"/>
+    <col min="39" max="39" width="15" customWidth="1"/>
+    <col min="41" max="43" width="19.125" customWidth="1"/>
+    <col min="44" max="44" width="14" customWidth="1"/>
+    <col min="45" max="45" width="10.875" customWidth="1"/>
+    <col min="46" max="48" width="23.375" customWidth="1"/>
+    <col min="49" max="49" width="15" customWidth="1"/>
+    <col min="50" max="50" width="19.125" customWidth="1"/>
+    <col min="51" max="51" width="15" customWidth="1"/>
+    <col min="53" max="55" width="19.125" customWidth="1"/>
+    <col min="56" max="56" width="14" customWidth="1"/>
+    <col min="57" max="57" width="10.875" customWidth="1"/>
+    <col min="58" max="60" width="23.375" customWidth="1"/>
+    <col min="61" max="61" width="15" customWidth="1"/>
+    <col min="62" max="62" width="19.125" customWidth="1"/>
+    <col min="63" max="63" width="15" customWidth="1"/>
+    <col min="64" max="64" width="8.875" customWidth="1"/>
+    <col min="65" max="67" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28" customHeight="1" spans="1:16">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="28" customHeight="1" spans="1:24">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="X1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:24">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+    </row>
+    <row r="3" spans="13:21">
+      <c r="M3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="R3" s="1">
+        <v>3</v>
+      </c>
+      <c r="S3" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="T3" s="1">
+        <v>99999</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="17:21">
+      <c r="Q4" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="R4" s="1">
+        <v>3</v>
+      </c>
+      <c r="S4" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="T4" s="1">
+        <v>99999</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0.2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="E1:V1"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3">
@@ -1550,110 +1984,160 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="7" width="13.75" customWidth="1"/>
-    <col min="8" max="8" width="11.875" customWidth="1"/>
-    <col min="9" max="9" width="31.625" customWidth="1"/>
-    <col min="10" max="10" width="29.25" customWidth="1"/>
-    <col min="11" max="11" width="11.125" customWidth="1"/>
-    <col min="13" max="13" width="18.5" customWidth="1"/>
-    <col min="14" max="14" width="21.625" customWidth="1"/>
-    <col min="15" max="15" width="21.25" customWidth="1"/>
-    <col min="16" max="16" width="16.5" customWidth="1"/>
-    <col min="17" max="17" width="13.375" customWidth="1"/>
-    <col min="18" max="18" width="21.25" customWidth="1"/>
-    <col min="19" max="19" width="19.125" customWidth="1"/>
-    <col min="20" max="20" width="15" customWidth="1"/>
-    <col min="22" max="22" width="19.125" customWidth="1"/>
-    <col min="23" max="23" width="23.375" customWidth="1"/>
-    <col min="24" max="24" width="19.125" customWidth="1"/>
-    <col min="25" max="25" width="14" customWidth="1"/>
-    <col min="26" max="26" width="25.5" customWidth="1"/>
+    <col min="1" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="15" style="1" customWidth="1"/>
+    <col min="6" max="7" width="13.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="31.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="29.25" style="1" customWidth="1"/>
+    <col min="11" max="12" width="11.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17" style="1" customWidth="1"/>
+    <col min="15" max="15" width="21.125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="20.125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="21.125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="20.125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="18.5" style="1" customWidth="1"/>
+    <col min="20" max="20" width="21.625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="21.25" style="1" customWidth="1"/>
+    <col min="22" max="22" width="16.5" style="1" customWidth="1"/>
+    <col min="23" max="23" width="13.375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="21.25" style="1" customWidth="1"/>
+    <col min="25" max="25" width="19.125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="15" style="1" customWidth="1"/>
+    <col min="27" max="27" width="9" style="1"/>
+    <col min="28" max="28" width="19.125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="23.375" style="1" customWidth="1"/>
+    <col min="30" max="30" width="19.125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="14" style="1" customWidth="1"/>
+    <col min="32" max="32" width="25.5" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="29" customHeight="1" spans="1:14">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" ht="29" customHeight="1" spans="1:20">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="1" spans="1:13">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:19">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="1"/>
+      <c r="M2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="14:18">
+      <c r="N3" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="O3" s="1">
+        <v>3</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>99999</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0.2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:L1"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="E1:R1"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3">
       <formula1>"一次性还款,334"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA3">
       <formula1>"逾期"</formula1>
     </dataValidation>
   </dataValidations>

--- a/public/excelTemplate/资金台账-借款信息导入模板.xlsx
+++ b/public/excelTemplate/资金台账-借款信息导入模板.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" activeTab="3"/>
+    <workbookView windowWidth="19785" windowHeight="7560" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="流贷-好信用" sheetId="1" r:id="rId1"/>
     <sheet name="敞口-好信用" sheetId="2" r:id="rId2"/>
     <sheet name="分授信-好信用" sheetId="3" r:id="rId3"/>
     <sheet name="流贷-供应链" sheetId="4" r:id="rId4"/>
+    <sheet name="流贷-好橙工" sheetId="5" r:id="rId5"/>
+    <sheet name="敞口-好橙工" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="36">
   <si>
     <t>基础信息</t>
   </si>
@@ -129,6 +131,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>*</t>
     </r>
     <r>
@@ -235,6 +244,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>*</t>
     </r>
     <r>
@@ -272,6 +288,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>*</t>
     </r>
     <r>
@@ -309,6 +332,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>*</t>
     </r>
     <r>
@@ -368,6 +398,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>*</t>
     </r>
     <r>
@@ -458,6 +495,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>*</t>
     </r>
     <r>
@@ -481,7 +525,19 @@
     <t>一次性还款</t>
   </si>
   <si>
-    <t>*台账编号</t>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>台账编号</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -489,10 +545,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -518,7 +574,60 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -533,21 +642,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -561,42 +680,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -607,52 +703,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -663,13 +719,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,85 +845,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,79 +893,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -854,39 +910,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -901,6 +924,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -929,28 +987,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -962,10 +1018,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -974,133 +1030,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1108,20 +1164,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1444,143 +1500,143 @@
   <sheetPr/>
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="D21" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="15" style="1" customWidth="1"/>
-    <col min="6" max="7" width="13.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="31.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="29.25" style="1" customWidth="1"/>
-    <col min="11" max="12" width="11.125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17" style="1" customWidth="1"/>
-    <col min="15" max="15" width="21.125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="20.125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="21.125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="20.125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="18.5" style="1" customWidth="1"/>
-    <col min="20" max="20" width="21.625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="21.25" style="1" customWidth="1"/>
-    <col min="22" max="22" width="16.5" style="1" customWidth="1"/>
-    <col min="23" max="23" width="13.375" style="1" customWidth="1"/>
-    <col min="24" max="24" width="21.25" style="1" customWidth="1"/>
-    <col min="25" max="25" width="19.125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="15" style="1" customWidth="1"/>
-    <col min="27" max="27" width="9" style="1"/>
-    <col min="28" max="28" width="19.125" style="1" customWidth="1"/>
-    <col min="29" max="29" width="23.375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="19.125" style="1" customWidth="1"/>
-    <col min="31" max="31" width="14" style="1" customWidth="1"/>
-    <col min="32" max="32" width="25.5" style="1" customWidth="1"/>
-    <col min="33" max="16384" width="9" style="1"/>
+    <col min="1" max="4" width="9" style="3"/>
+    <col min="5" max="5" width="15" style="3" customWidth="1"/>
+    <col min="6" max="7" width="13.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="31.625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="29.25" style="3" customWidth="1"/>
+    <col min="11" max="12" width="11.125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="17.875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="17" style="3" customWidth="1"/>
+    <col min="15" max="15" width="21.125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="20.125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="21.125" style="3" customWidth="1"/>
+    <col min="18" max="18" width="20.125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="18.5" style="3" customWidth="1"/>
+    <col min="20" max="20" width="21.625" style="3" customWidth="1"/>
+    <col min="21" max="21" width="21.25" style="3" customWidth="1"/>
+    <col min="22" max="22" width="16.5" style="3" customWidth="1"/>
+    <col min="23" max="23" width="13.375" style="3" customWidth="1"/>
+    <col min="24" max="24" width="21.25" style="3" customWidth="1"/>
+    <col min="25" max="25" width="19.125" style="3" customWidth="1"/>
+    <col min="26" max="26" width="15" style="3" customWidth="1"/>
+    <col min="27" max="27" width="9" style="3"/>
+    <col min="28" max="28" width="19.125" style="3" customWidth="1"/>
+    <col min="29" max="29" width="23.375" style="3" customWidth="1"/>
+    <col min="30" max="30" width="19.125" style="3" customWidth="1"/>
+    <col min="31" max="31" width="14" style="3" customWidth="1"/>
+    <col min="32" max="32" width="25.5" style="3" customWidth="1"/>
+    <col min="33" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="29" customHeight="1" spans="1:20">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="3" customFormat="1" ht="29" customHeight="1" spans="1:20">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:19">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="3" customFormat="1" spans="1:19">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="2"/>
+      <c r="S2" s="4"/>
     </row>
     <row r="3" spans="14:18">
-      <c r="N3" s="4">
+      <c r="N3" s="5">
         <v>0.12</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="3">
         <v>3</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="5">
         <v>0.16</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="3">
         <v>99999</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="3">
         <v>0.2</v>
       </c>
     </row>
@@ -1609,8 +1665,8 @@
   <sheetPr/>
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1654,92 +1710,92 @@
   </cols>
   <sheetData>
     <row r="1" ht="27" customHeight="1" spans="1:20">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5" t="s">
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="R2" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
     </row>
     <row r="3" spans="16:17">
       <c r="P3">
@@ -1774,8 +1830,8 @@
   <sheetPr/>
   <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3:U4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1824,47 +1880,47 @@
   </cols>
   <sheetData>
     <row r="1" ht="28" customHeight="1" spans="1:24">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5" t="s">
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:24">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
@@ -1879,88 +1935,88 @@
       <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="V2" t="s">
         <v>15</v>
       </c>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
     </row>
     <row r="3" spans="13:21">
       <c r="M3" t="s">
         <v>34</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="5">
         <v>0.12</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="3">
         <v>3</v>
       </c>
-      <c r="S3" s="4">
+      <c r="S3" s="5">
         <v>0.16</v>
       </c>
-      <c r="T3" s="1">
+      <c r="T3" s="3">
         <v>99999</v>
       </c>
-      <c r="U3" s="1">
+      <c r="U3" s="3">
         <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="17:21">
-      <c r="Q4" s="4">
+      <c r="Q4" s="5">
         <v>0.12</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="3">
         <v>3</v>
       </c>
-      <c r="S4" s="4">
+      <c r="S4" s="5">
         <v>0.16</v>
       </c>
-      <c r="T4" s="1">
+      <c r="T4" s="3">
         <v>99999</v>
       </c>
-      <c r="U4" s="1">
+      <c r="U4" s="3">
         <v>0.2</v>
       </c>
     </row>
@@ -1986,143 +2042,143 @@
   <sheetPr/>
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="15" style="1" customWidth="1"/>
-    <col min="6" max="7" width="13.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="31.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="29.25" style="1" customWidth="1"/>
-    <col min="11" max="12" width="11.125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17" style="1" customWidth="1"/>
-    <col min="15" max="15" width="21.125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="20.125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="21.125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="20.125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="18.5" style="1" customWidth="1"/>
-    <col min="20" max="20" width="21.625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="21.25" style="1" customWidth="1"/>
-    <col min="22" max="22" width="16.5" style="1" customWidth="1"/>
-    <col min="23" max="23" width="13.375" style="1" customWidth="1"/>
-    <col min="24" max="24" width="21.25" style="1" customWidth="1"/>
-    <col min="25" max="25" width="19.125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="15" style="1" customWidth="1"/>
-    <col min="27" max="27" width="9" style="1"/>
-    <col min="28" max="28" width="19.125" style="1" customWidth="1"/>
-    <col min="29" max="29" width="23.375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="19.125" style="1" customWidth="1"/>
-    <col min="31" max="31" width="14" style="1" customWidth="1"/>
-    <col min="32" max="32" width="25.5" style="1" customWidth="1"/>
-    <col min="33" max="16384" width="9" style="1"/>
+    <col min="1" max="4" width="9" style="3"/>
+    <col min="5" max="5" width="15" style="3" customWidth="1"/>
+    <col min="6" max="7" width="13.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="31.625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="29.25" style="3" customWidth="1"/>
+    <col min="11" max="12" width="11.125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="17.875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="17" style="3" customWidth="1"/>
+    <col min="15" max="15" width="21.125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="20.125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="21.125" style="3" customWidth="1"/>
+    <col min="18" max="18" width="20.125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="18.5" style="3" customWidth="1"/>
+    <col min="20" max="20" width="21.625" style="3" customWidth="1"/>
+    <col min="21" max="21" width="21.25" style="3" customWidth="1"/>
+    <col min="22" max="22" width="16.5" style="3" customWidth="1"/>
+    <col min="23" max="23" width="13.375" style="3" customWidth="1"/>
+    <col min="24" max="24" width="21.25" style="3" customWidth="1"/>
+    <col min="25" max="25" width="19.125" style="3" customWidth="1"/>
+    <col min="26" max="26" width="15" style="3" customWidth="1"/>
+    <col min="27" max="27" width="9" style="3"/>
+    <col min="28" max="28" width="19.125" style="3" customWidth="1"/>
+    <col min="29" max="29" width="23.375" style="3" customWidth="1"/>
+    <col min="30" max="30" width="19.125" style="3" customWidth="1"/>
+    <col min="31" max="31" width="14" style="3" customWidth="1"/>
+    <col min="32" max="32" width="25.5" style="3" customWidth="1"/>
+    <col min="33" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="29" customHeight="1" spans="1:20">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="3" customFormat="1" ht="29" customHeight="1" spans="1:20">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:19">
-      <c r="A2" s="1" t="s">
+    <row r="2" s="3" customFormat="1" spans="1:19">
+      <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="2"/>
+      <c r="S2" s="4"/>
     </row>
-    <row r="3" s="1" customFormat="1" spans="14:18">
-      <c r="N3" s="4">
+    <row r="3" s="3" customFormat="1" spans="14:18">
+      <c r="N3" s="5">
         <v>0.12</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="3">
         <v>3</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="5">
         <v>0.16</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="3">
         <v>99999</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="3">
         <v>0.2</v>
       </c>
     </row>
@@ -2144,4 +2200,307 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:T3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="4" width="9" style="3"/>
+    <col min="5" max="5" width="15" style="3" customWidth="1"/>
+    <col min="6" max="7" width="13.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="31.625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="29.25" style="3" customWidth="1"/>
+    <col min="11" max="12" width="11.125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="17.875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="17" style="3" customWidth="1"/>
+    <col min="15" max="15" width="21.125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="20.125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="21.125" style="3" customWidth="1"/>
+    <col min="18" max="18" width="20.125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="18.5" style="3" customWidth="1"/>
+    <col min="20" max="20" width="21.625" style="3" customWidth="1"/>
+    <col min="21" max="21" width="21.25" style="3" customWidth="1"/>
+    <col min="22" max="22" width="16.5" style="3" customWidth="1"/>
+    <col min="23" max="23" width="13.375" style="3" customWidth="1"/>
+    <col min="24" max="24" width="21.25" style="3" customWidth="1"/>
+    <col min="25" max="25" width="19.125" style="3" customWidth="1"/>
+    <col min="26" max="26" width="15" style="3" customWidth="1"/>
+    <col min="27" max="27" width="9" style="3"/>
+    <col min="28" max="28" width="19.125" style="3" customWidth="1"/>
+    <col min="29" max="29" width="23.375" style="3" customWidth="1"/>
+    <col min="30" max="30" width="19.125" style="3" customWidth="1"/>
+    <col min="31" max="31" width="14" style="3" customWidth="1"/>
+    <col min="32" max="32" width="25.5" style="3" customWidth="1"/>
+    <col min="33" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="3" customFormat="1" ht="29" customHeight="1" spans="1:20">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" s="3" customFormat="1" spans="1:19">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" s="4"/>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="14:18">
+      <c r="N3" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="O3" s="3">
+        <v>3</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>99999</v>
+      </c>
+      <c r="R3" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:R1"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3">
+      <formula1>"一次性还款,334"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA3">
+      <formula1>"逾期"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:T3"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <cols>
+    <col min="5" max="5" width="15.875" customWidth="1"/>
+    <col min="6" max="6" width="9.625" customWidth="1"/>
+    <col min="7" max="7" width="10.875" customWidth="1"/>
+    <col min="8" max="9" width="11.625" customWidth="1"/>
+    <col min="10" max="11" width="32.5" customWidth="1"/>
+    <col min="12" max="12" width="9.625" customWidth="1"/>
+    <col min="13" max="13" width="21.25" customWidth="1"/>
+    <col min="14" max="15" width="27.5" customWidth="1"/>
+    <col min="16" max="16" width="11.625" customWidth="1"/>
+    <col min="17" max="17" width="9.625" customWidth="1"/>
+    <col min="18" max="18" width="7" customWidth="1"/>
+    <col min="19" max="19" width="12.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="16:17">
+      <c r="P3">
+        <v>0.12</v>
+      </c>
+      <c r="Q3">
+        <v>0.12</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:R1"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3 M3:N3">
+      <formula1>"一次性还款,334"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/public/excelTemplate/资金台账-借款信息导入模板.xlsx
+++ b/public/excelTemplate/资金台账-借款信息导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19785" windowHeight="7560" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7860" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="流贷-好信用" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="44">
   <si>
     <t>基础信息</t>
   </si>
@@ -353,6 +353,24 @@
     </r>
   </si>
   <si>
+    <t>流-1</t>
+  </si>
+  <si>
+    <t>南京万帝连</t>
+  </si>
+  <si>
+    <t>南京分部</t>
+  </si>
+  <si>
+    <t>万镇连仓库</t>
+  </si>
+  <si>
+    <t>某某人</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -485,59 +503,53 @@
     </r>
   </si>
   <si>
+    <t>第一次还款宽限期时长（天）</t>
+  </si>
+  <si>
+    <t>第二次还款宽限期时长（天）</t>
+  </si>
+  <si>
+    <t>第三次还款宽限期时长（天）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>逾期利率</t>
+    </r>
+  </si>
+  <si>
+    <t>好敞-1</t>
+  </si>
+  <si>
+    <t>南京万镇连仓库</t>
+  </si>
+  <si>
+    <t>开票金额（元）</t>
+  </si>
+  <si>
+    <t>开票日期</t>
+  </si>
+  <si>
     <t>第一次还款宽限期时长</t>
   </si>
   <si>
-    <t>第二次还款宽限期时长（天）</t>
-  </si>
-  <si>
-    <t>第三次还款宽限期时长（天）</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>逾期利率</t>
-    </r>
-  </si>
-  <si>
-    <t>开票金额（元）</t>
-  </si>
-  <si>
-    <t>开票日期</t>
-  </si>
-  <si>
-    <t>一次性还款</t>
-  </si>
-  <si>
-    <r>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>台账编号</t>
-    </r>
+    <t>敞-1</t>
   </si>
 </sst>
 </file>
@@ -573,9 +585,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -588,39 +637,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -635,14 +653,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -658,15 +669,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -680,31 +698,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -719,49 +731,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,114 +881,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -888,18 +912,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -913,28 +925,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -963,6 +967,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -974,15 +993,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1004,9 +1014,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1018,10 +1030,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1030,34 +1042,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1066,101 +1081,98 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1173,8 +1185,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1500,13 +1518,15 @@
   <sheetPr/>
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="D21" sqref="$A1:$XFD1048576"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="4" width="9" style="3"/>
+    <col min="1" max="2" width="9" style="3"/>
+    <col min="3" max="3" width="10.875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9" style="3"/>
     <col min="5" max="5" width="15" style="3" customWidth="1"/>
     <col min="6" max="7" width="13.75" style="3" customWidth="1"/>
     <col min="8" max="8" width="11.875" style="3" customWidth="1"/>
@@ -1537,32 +1557,32 @@
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" ht="29" customHeight="1" spans="1:20">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1621,23 +1641,62 @@
       <c r="R2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="4"/>
+      <c r="S2" s="5"/>
     </row>
-    <row r="3" spans="14:18">
-      <c r="N3" s="5">
+    <row r="3" spans="1:20">
+      <c r="A3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1140</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="I3" s="3">
+        <v>6</v>
+      </c>
+      <c r="K3" s="6">
+        <v>43467</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="7">
         <v>0.12</v>
       </c>
       <c r="O3" s="3">
         <v>3</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="7">
         <v>0.16</v>
       </c>
       <c r="Q3" s="3">
-        <v>99999</v>
+        <v>999</v>
       </c>
       <c r="R3" s="3">
         <v>0.2</v>
+      </c>
+      <c r="S3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1665,12 +1724,13 @@
   <sheetPr/>
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
     <col min="5" max="5" width="14.75" customWidth="1"/>
     <col min="6" max="6" width="11.625" customWidth="1"/>
     <col min="7" max="7" width="13.5583333333333" customWidth="1"/>
@@ -1753,43 +1813,43 @@
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="R2" t="s">
         <v>15</v>
@@ -1797,12 +1857,60 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="16:17">
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3">
+        <v>1140</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>1000</v>
+      </c>
+      <c r="F3" s="4">
+        <v>43466</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3">
+        <v>0.1</v>
+      </c>
+      <c r="I3">
+        <v>100</v>
+      </c>
+      <c r="J3">
+        <v>6</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
       <c r="P3">
         <v>0.12</v>
       </c>
       <c r="Q3">
         <v>0.12</v>
+      </c>
+      <c r="R3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1812,12 +1920,9 @@
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="T1:T2"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3 M3:N3">
-      <formula1>"一次性还款,334"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM3">
-      <formula1>"逾期"</formula1>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3">
+      <formula1>"334,一次性还款"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1828,16 +1933,19 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="12.9416666666667" customWidth="1"/>
     <col min="7" max="7" width="10.875" customWidth="1"/>
+    <col min="8" max="8" width="9.375"/>
     <col min="9" max="9" width="15" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
     <col min="11" max="12" width="31.625" customWidth="1"/>
@@ -1927,10 +2035,10 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
@@ -1954,13 +2062,13 @@
         <v>10</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>17</v>
@@ -1983,41 +2091,72 @@
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" spans="13:21">
-      <c r="M3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q3" s="5">
+    <row r="3" spans="1:24">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3">
+        <v>1140</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>10000</v>
+      </c>
+      <c r="F3" s="4">
+        <v>43467</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="4">
+        <v>43499</v>
+      </c>
+      <c r="I3">
+        <v>1000</v>
+      </c>
+      <c r="J3">
+        <v>0.12</v>
+      </c>
+      <c r="K3">
+        <v>6</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="7">
         <v>0.12</v>
       </c>
       <c r="R3" s="3">
         <v>3</v>
       </c>
-      <c r="S3" s="5">
+      <c r="S3" s="7">
         <v>0.16</v>
       </c>
       <c r="T3" s="3">
-        <v>99999</v>
+        <v>999</v>
       </c>
       <c r="U3" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="4" spans="17:21">
-      <c r="Q4" s="5">
-        <v>0.12</v>
-      </c>
-      <c r="R4" s="3">
-        <v>3</v>
-      </c>
-      <c r="S4" s="5">
-        <v>0.16</v>
-      </c>
-      <c r="T4" s="3">
-        <v>99999</v>
-      </c>
-      <c r="U4" s="3">
-        <v>0.2</v>
+      <c r="V3" t="s">
+        <v>26</v>
+      </c>
+      <c r="W3" t="s">
+        <v>27</v>
+      </c>
+      <c r="X3" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2042,13 +2181,15 @@
   <sheetPr/>
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="4" width="9" style="3"/>
+    <col min="1" max="2" width="9" style="3"/>
+    <col min="3" max="3" width="10.875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9" style="3"/>
     <col min="5" max="5" width="15" style="3" customWidth="1"/>
     <col min="6" max="7" width="13.75" style="3" customWidth="1"/>
     <col min="8" max="8" width="11.875" style="3" customWidth="1"/>
@@ -2079,38 +2220,38 @@
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" ht="29" customHeight="1" spans="1:20">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:19">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -2163,23 +2304,62 @@
       <c r="R2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="4"/>
+      <c r="S2" s="5"/>
     </row>
-    <row r="3" s="3" customFormat="1" spans="14:18">
-      <c r="N3" s="5">
+    <row r="3" s="3" customFormat="1" spans="1:20">
+      <c r="A3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1140</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="I3" s="3">
+        <v>6</v>
+      </c>
+      <c r="K3" s="6">
+        <v>43467</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="7">
         <v>0.12</v>
       </c>
       <c r="O3" s="3">
         <v>3</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="7">
         <v>0.16</v>
       </c>
       <c r="Q3" s="3">
-        <v>99999</v>
+        <v>999</v>
       </c>
       <c r="R3" s="3">
         <v>0.2</v>
+      </c>
+      <c r="S3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2207,13 +2387,15 @@
   <sheetPr/>
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="4" width="9" style="3"/>
+    <col min="1" max="2" width="9" style="3"/>
+    <col min="3" max="3" width="10.875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9" style="3"/>
     <col min="5" max="5" width="15" style="3" customWidth="1"/>
     <col min="6" max="7" width="13.75" style="3" customWidth="1"/>
     <col min="8" max="8" width="11.875" style="3" customWidth="1"/>
@@ -2244,32 +2426,32 @@
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" ht="29" customHeight="1" spans="1:20">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2328,23 +2510,62 @@
       <c r="R2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="4"/>
+      <c r="S2" s="5"/>
     </row>
-    <row r="3" s="3" customFormat="1" spans="14:18">
-      <c r="N3" s="5">
+    <row r="3" s="3" customFormat="1" spans="1:20">
+      <c r="A3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1140</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="I3" s="3">
+        <v>6</v>
+      </c>
+      <c r="K3" s="6">
+        <v>43467</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="7">
         <v>0.12</v>
       </c>
       <c r="O3" s="3">
         <v>3</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="7">
         <v>0.16</v>
       </c>
       <c r="Q3" s="3">
-        <v>99999</v>
+        <v>999</v>
       </c>
       <c r="R3" s="3">
         <v>0.2</v>
+      </c>
+      <c r="S3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2372,15 +2593,16 @@
   <sheetPr/>
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
     <col min="5" max="5" width="15.875" customWidth="1"/>
     <col min="6" max="6" width="9.625" customWidth="1"/>
-    <col min="7" max="7" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
     <col min="8" max="9" width="11.625" customWidth="1"/>
     <col min="10" max="11" width="32.5" customWidth="1"/>
     <col min="12" max="12" width="9.625" customWidth="1"/>
@@ -2436,43 +2658,43 @@
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="R2" t="s">
         <v>15</v>
@@ -2480,12 +2702,60 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="16:17">
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3">
+        <v>1140</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>1000</v>
+      </c>
+      <c r="F3" s="4">
+        <v>43466</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3">
+        <v>0.1</v>
+      </c>
+      <c r="I3">
+        <v>100</v>
+      </c>
+      <c r="J3">
+        <v>6</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
       <c r="P3">
         <v>0.12</v>
       </c>
       <c r="Q3">
         <v>0.12</v>
+      </c>
+      <c r="R3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2496,8 +2766,8 @@
     <mergeCell ref="T1:T2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3 M3:N3">
-      <formula1>"一次性还款,334"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3">
+      <formula1>"334,一次性还款"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
